--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>contains duplicate III</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>分治，遇到符号就分左右算再合起来，然后层层递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用一行代码，但是希望你用递归。注意审题，有办法让对方必输才算赢，对方有可能赢都不行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,6 +466,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>contains duplicate III</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,22 @@
   </si>
   <si>
     <t>可以用一行代码，但是希望你用递归。注意审题，有办法让对方必输才算赢，对方有可能赢都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118/119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨辉三角，可以用递推公式，或者直接用排列组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 Permutation Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用递推，紫书数论的编码与解码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +192,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -431,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,6 +490,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>contains duplicate III</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>可以用递推，紫书数论的编码与解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 next permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题有技巧的,想明白实现不难。第二遍忘记了，还得刷……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53 max subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可以用分治，还有一种奇奇怪怪方法，这道题，很典型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 jump game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是dp。之前写的超时，主要是状态定的不好。状态：当前index能不能作为终点被跳到。（不好的状态是定的起点，就很耗时间…）然后填格子从后往前填，假设最后一个状态能被跳到，则此点往回倒nums[i]个点的范围内都能被跳到。然后往前倒。挨个算费时间，就记最后一个点如果能被跳到，最远能从哪个点跳过来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +216,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -447,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,6 +530,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -19,65 +19,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>contains duplicate III</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>很像脑筋急转弯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治，遇到符号就分左右算再合起来，然后层层递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用一行代码，但是希望你用递归。注意审题，有办法让对方必输才算赢，对方有可能赢都不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118/119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨辉三角，可以用递推公式，或者直接用排列组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 Permutation Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用递推，紫书数论的编码与解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 next permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题有技巧的,想明白实现不难。第二遍忘记了，还得刷……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53 max subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可以用分治，还有一种奇奇怪怪方法，这道题，很典型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 jump game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是dp。之前写的超时，主要是状态定的不好。状态：当前index能不能作为终点被跳到。（不好的状态是定的起点，就很耗时间…）然后填格子从后往前填，假设最后一个状态能被跳到，则此点往回倒nums[i]个点的范围内都能被跳到。然后往前倒。挨个算费时间，就记最后一个点如果能被跳到，最远能从哪个点跳过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309  Best Time to Buy and Sell Stock with Cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个dp，但是状态转移方程很难写。可以用状态机（网上搜这道题一道道点看到的 https://www.cnblogs.com/jdneo/p/5228004.html）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343  Integer Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆3，然后用DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71 simplify path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringstream，用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220 contains duplicate III</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>滑动窗口，大数溢出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很像脑筋急转弯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分治，遇到符号就分左右算再合起来，然后层层递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用一行代码，但是希望你用递归。注意审题，有办法让对方必输才算赢，对方有可能赢都不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118/119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨辉三角，可以用递推公式，或者直接用排列组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 Permutation Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用递推，紫书数论的编码与解码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31 next permutation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这道题有技巧的,想明白实现不难。第二遍忘记了，还得刷……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53 max subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个可以用分治，还有一种奇奇怪怪方法，这道题，很典型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55 jump game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是dp。之前写的超时，主要是状态定的不好。状态：当前index能不能作为终点被跳到。（不好的状态是定的起点，就很耗时间…）然后填格子从后往前填，假设最后一个状态能被跳到，则此点往回倒nums[i]个点的范围内都能被跳到。然后往前倒。挨个算费时间，就记最后一个点如果能被跳到，最远能从哪个点跳过来</t>
+  </si>
+  <si>
+    <t>73 set matrix zeros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间复杂度为O(1)的那种，在边界设标志位。注意边界条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,74 +160,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -216,7 +179,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,87 +434,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.375" customWidth="1"/>
+    <col min="2" max="2" width="91" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>220</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>292</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>空间复杂度为O(1)的那种，在边界设标志位。注意边界条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 sort color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针的想法对了，但是想想，怎么用这个双指针？（或者往，三指针上想）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以是递归，也可以是DP。这个树DP还很典型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95 Unique Binary Search Trees II、96 Unique Binary Search Trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98 Validate Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一道中序遍历题，就是中序遍历怎么整，这个就怎么整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,6 +574,30 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,11 +128,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98 Validate Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一道中序遍历题，就是中序遍历怎么整，这个就怎么整</t>
+    <t>98 Validate Binary Search Tree、109 Convert Sorted List to Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一道中序遍历题，就是中序遍历怎么整，这个就怎么整.109同理，也是中序遍历怎么整，这里就怎么整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117 Populating Next Right Pointers in Each Node II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题如果要求不用额外空间，不能用队列，就是指针。想一想。这个和116同理。116之前的那些其实都不该过的，只不过因为116是完美二叉树，所以都过了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122 122. Best Time to Buy and Sell Stock II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题很烦躁，每次都写不对。但是思路都还没错……刚一拐下来就是低，刚要下去就是高。往下走的平的也想成一段上升就好了。就是算多少段上升。往上走的平的不是上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用重刷的总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题的递归了解一下。就是递归要的：以此节点为根节点的要求的那个和。传进去的参数都是辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129  Sum Root to Leaf Numbers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,6 +212,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -458,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,6 +694,35 @@
         <v>28</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="不用重刷的总结" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +162,128 @@
   </si>
   <si>
     <t>129  Sum Root to Leaf Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145 Binary Tree Postorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后序遍历非递归做法要会。加个辅助结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>151 Reverse Words in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先倒整体，再倒局部。这道题很烦躁，注意string的erase问题，迭代器形式erase首尾都删除，且两个都要写。Index形式起始index不删除，从这个开始往后删。后面删除个数可写可不写。以及index的erase不改变string长度，迭代器的erase是会改变erase的长度的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可快排可归并。归并没写出来……加强，归并排序归并排序归并排序（这道题快排贼慢，不知道为啥）。归并如果复杂了，就想尾巴变成NULL。怎么简单怎么来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不复杂，但是能不能别指着测试用例活，阿门…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153、154. Find Minimum in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>用链表的形式弄。每个节点存此节点往后的最小值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179 Largest Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大方向对了，这个cmp怎么写很神奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187 Repeated DNA Sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题不是编码的问题，而是思路的问题。只能扫描一遍哦，要不会超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189 Rotate Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1) place的解法。这里证明一下为啥这样不会重。这个解法是一个点为起点转完了之后，到下一个，接着转。在一种转圈的时候，这个起点周围的点如果转到了，那么这个旁边的点的旁边的点也会被转到……圈，节点都是等位的。所以如果这个起点隔壁的点能被转到，那一次就能转光。如果隔壁的点没被转到，那么再以隔壁为起点接着转就好了。总结一下：如果当前转的轮次，一个结点出发，能转到它隔壁，那么从隔壁出发就能转到隔壁的隔壁……所以如果这次转回原点，还没遍历完，隔壁是一定可以用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190 Reverse Bits  191. Number of 1 Bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就把输入的当个int就行，不要被uint32_t这个类型迷惑。这个只是告诉你bit的数是32，然后因为不是int是uint32 reverse也不用考虑溢出的问题。别的没啥。用bit的方法弄。191注意终止条件不能是：while(temp&lt;=n)，如果n是 2147483648 (10000000000000000000000000000000)会停不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201. Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>Bit运算骚操作。就是从高到低，能找到相等的就行了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>208 Implement Trie (Prefix Tree)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写出来问题不大。注意那个app的添加，加一个ifword，判断以这个字母为结尾的是不是一个词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209 Minimum Size Subarray Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第二轮刷，意思想对了，但是代码写的是真的丑……看看别人的。这是个双指针。不用双指针也行。但是我觉得，如果是双指针，不会出现解决不了的溢出，long long能解决，因为不会一直累加。但是一直加lower_bound的那种，我觉得会崩。不倾向那种。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这道题不错</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>堆默认大顶堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220 Contains Duplicate III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持一个窗口。但是这道题的坑，在于，越界！！！(long long int)(nums[i])+t，这样子就是对的，先变成long long再加。然后(long long int)(nums[i]+t)就是不对的，这样子，long long int啥用没有，因为已经凉了才转long long，这样不对！这是个坑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +301,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -204,82 +342,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -554,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,17 +785,116 @@
         <v>32</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -728,4 +902,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>309  Best Time to Buy and Sell Stock with Cooldown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是个dp，但是状态转移方程很难写。可以用状态机（网上搜这道题一道道点看到的 https://www.cnblogs.com/jdneo/p/5228004.html）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,6 +280,45 @@
   </si>
   <si>
     <t>维持一个窗口。但是这道题的坑，在于，越界！！！(long long int)(nums[i])+t，这样子就是对的，先变成long long再加。然后(long long int)(nums[i]+t)就是不对的，这样子，long long int啥用没有，因为已经凉了才转long long，这样不对！这是个坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>带圈的链表变型。记得链表是可以用数组的形式表示的哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299. Bulls and Cows</t>
+  </si>
+  <si>
+    <t>一轮可以扫完的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307. Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>线段树，segmant tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个dp，但是状态转移方程很难写。可以用状态机（网上搜这道题一道道点看到的 https://www.cnblogs.com/jdneo/p/5228004.html）这道题不行背下来吧……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313. Super Ugly Number</t>
+  </si>
+  <si>
+    <t>可以进一步的优化的。不用那么多for从头到尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,10 +678,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -714,187 +749,227 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -916,15 +991,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>309  Best Time to Buy and Sell Stock with Cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个dp，但是状态转移方程很难写。可以用状态机（网上搜这道题一道道点看到的 https://www.cnblogs.com/jdneo/p/5228004.html）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,50 +287,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>223. Rectangle Area</t>
+  </si>
+  <si>
+    <t>这是个脑筋急转弯，代码量小，主要靠想，想一想这几个边的大小。上下左右排一排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225. Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>塞的时候就塞好，省的再整了。Pop还好，如果只是访问第一个，塞的时候不整好，每次访问都要倒一圈，就很浪费。主要是节省，访问第一个而不弹出的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229. Majority Element II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个数元素的感觉很典型，投票法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>stack的中序遍历啊……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>要用两个stack，但是不用来回倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST还是可以用上的，要用上BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>递归操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 Product of Array Except Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240 Search a 2D Matrix II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题，找行边界的时候很典型，因为要找大于和小于的，而不是等于的。然后分治的那一种，就是右上角出发逐行逐列删的也很典型。
+class Solution {
+public:
+    bool searchMatrix(vector&lt;vector&lt;int&gt;&gt;&amp; matrix, int target) {
+        int row=matrix.size();
+        if(row==0)
+            return false;
+        int col=matrix[0].size();
+        if(col==0)
+            return false;
+        int low=0;
+        int high=row;
+        while(low&lt;high)
+        {
+            int mid=low+(high-low)/2;
+            if(matrix[mid][0]&lt;=target)
+                low=mid+1;
+            else
+                high=mid;
+        }
+        int uperlim=low;
+        low=0;
+        high=uperlim;
+        while(low&lt;high)
+        {
+            int mid=low+(high-low)/2;
+            if(matrix[mid][col-1]&lt;target)
+                low=mid+1;
+            else
+                high=mid;
+        }
+        int lowerlim=low;
+        for(int i=lowerlim;i&lt;uperlim;++i)
+        {
+            low=0;
+            high=col-1;
+            while(low&lt;=high)
+            {
+                int mid=low+(high-low)/2;
+                if(matrix[i][mid]==target)
+                    return true;
+                if(matrix[i][mid]&lt;target)
+                    low=mid+1;
+                else
+                    high=mid-1;
+            }
+        }
+        return false;
+    }
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>284. Peeking Iterator</t>
+  </si>
+  <si>
+    <t>这道题我不知道在说什么……只是大致懂得了个意思……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进一步的优化的。不用那么多for从头到尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313. Super Ugly Number</t>
+  </si>
+  <si>
+    <t>线段树，segmant tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307. Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>一轮可以扫完的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299. Bulls and Cows</t>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>带圈的链表变型。记得链表是可以用数组的形式表示的哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>287. Find the Duplicate Number</t>
-  </si>
-  <si>
-    <t>带圈的链表变型。记得链表是可以用数组的形式表示的哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>289. Game of Life</t>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>299. Bulls and Cows</t>
-  </si>
-  <si>
-    <t>一轮可以扫完的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>307. Range Sum Query - Mutable</t>
-  </si>
-  <si>
-    <t>线段树，segmant tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是个dp，但是状态转移方程很难写。可以用状态机（网上搜这道题一道道点看到的 https://www.cnblogs.com/jdneo/p/5228004.html）这道题不行背下来吧……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>313. Super Ugly Number</t>
-  </si>
-  <si>
-    <t>可以进一步的优化的。不用那么多for从头到尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +474,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,19 +510,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,7 +612,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -664,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,15 +881,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>238</v>
+      <c r="A2" t="s">
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -749,219 +952,219 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
+      <c r="A39" t="s">
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,6 +1173,78 @@
       </c>
       <c r="B43" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -991,15 +1266,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,41 @@
   </si>
   <si>
     <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>310. Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>naïve的BFS,DFS，图上的动态规划（这个有点意思，用个string-int的map，表明高度方向）都超时……用了从叶子节点的BFS，就是不断地剪去叶子结点。和课程表，有先修课的那道题很像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318. Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <r>
+      <t>位运算。N方复杂度少不了，但是如果提前hash一下，判断是不是common的时候会省事（按照我之前暴力的写法，就得是n方*26，每个都要对26个字母算。用位运算，就是n方+总字母数，总字母数是n级别的）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个hash操作不熟练，不是在写代码上，是在思路上</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319. Bulb Switcher</t>
+  </si>
+  <si>
+    <t>智商碾压……找完全平方数个数，上网搜一下题解就好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,74 +560,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,7 +579,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -867,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1212,30 @@
       </c>
       <c r="B52" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,13 @@
   </si>
   <si>
     <t>智商碾压……找完全平方数个数，上网搜一下题解就好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326. Power of Three</t>
+  </si>
+  <si>
+    <t>这又是一道数学题……考验智商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1243,14 @@
       </c>
       <c r="B55" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,13 @@
   </si>
   <si>
     <t>这又是一道数学题……考验智商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>324. Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>第二种没看懂……第一种画个图，就是让，中间的大于小的，最大的大于中间的，这么对上。从两头往中间码着填，index不复杂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1251,6 +1258,14 @@
       </c>
       <c r="B56" s="2" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +486,13 @@
   </si>
   <si>
     <t>第二种没看懂……第一种画个图，就是让，中间的大于小的，最大的大于中间的，这么对上。从两头往中间码着填，index不复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>331. Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>这还是个数学题，数符号的……注意istringstream的用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,6 +1273,14 @@
       </c>
       <c r="B57" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>343  Integer Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆3，然后用DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,6 +489,65 @@
   </si>
   <si>
     <t>这还是个数学题，数符号的……注意istringstream的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337.House Robber III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归。注意不要递归重了……不要想动态规划了…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>这是个dp，动态规划啊动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit的一些技巧：
+2的一些次方，只有一位是1，可以用n&amp;(n-1)==0来判断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆3数学操作。还可以用DP。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他技巧：挪位置的while，尽可能while里一次只操作一步，不要while套while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用桶排序，也可用heap。Heap注意priority_queue的用法。都是要在，统计出来每个元素的频率之后，再进行操作的。就是先统计出来每个元素的频率，然后对这个频率进行排序。这就是一道排序的题。很好的题解（用了堆，快排，桶排序）：https://leetcode.com/problems/top-k-frequent-elements/discuss/81631/3-ways-to-solve-this-problem
+这道题的priority_queue的操作：
+class Solution {
+public:
+    vector&lt;int&gt; topKFrequent(vector&lt;int&gt;&amp; nums, int k) {
+        unordered_map&lt;int,int&gt; ma;
+        for(int i=0;i&lt;nums.size();++i)
+        {
+            ++ma[nums[i]];
+        }
+        priority_queue&lt;pair&lt;int,int&gt;,vector&lt;pair&lt;int,int&gt;&gt;&gt; heap;
+        for(auto pair:ma)
+        {
+            heap.push({pair.second,pair.first});
+        }
+        vector&lt;int&gt; re;
+        for(int i=0;i&lt;k;++i)
+        {
+            re.push_back(heap.top().second);
+            heap.pop();
+        }
+        return re;
+    }
+};</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -575,12 +630,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -600,7 +732,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -855,29 +987,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -952,338 +1085,381 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
         <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
         <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
         <v>70</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
         <v>93</v>
-      </c>
-      <c r="B53" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
         <v>97</v>
-      </c>
-      <c r="B55" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
         <v>101</v>
-      </c>
-      <c r="B57" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>104</v>
       </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="384.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C69"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1302,15 +1478,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,7 +520,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>347. Top K Frequent Elements</t>
+    <t>215.Kth Largest Element in an Array
+347. Top K Frequent Elements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,7 +548,18 @@
         }
         return re;
     }
-};</t>
+}；
+215的解法：维护N-K+1的大顶堆（第一个是最大的，比别人都大，N-K+1，那这个就是第k个最大的）；
+维护K个的小顶堆；改一下快排，只排带k的那个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365. Water and Jug Problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这是个数学问题，我在紫书上见过，就是mx+ny=d的解，d=gcd(x,y)，所以只要z能%d就行（gcd，不断%换位置就行）。https://www.cnblogs.com/grandyang/p/5628836.html
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -637,7 +649,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,74 +663,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -732,7 +682,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -989,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -1432,28 +1382,36 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="C69" s="8"/>
+      <c r="A69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1461,8 +1419,11 @@
     <mergeCell ref="C68:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B62" r:id="rId1" display="https://www.cnblogs.com/grandyang/p/5628836.html_x000a_"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,29 @@
   <si>
     <t xml:space="preserve">这是个数学问题，我在紫书上见过，就是mx+ny=d的解，d=gcd(x,y)，所以只要z能%d就行（gcd，不断%换位置就行）。https://www.cnblogs.com/grandyang/p/5628836.html
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>368.Largest Divisible Subset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用DP。回溯会超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371.371. Sum of Two Integers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇的操作。用位运算。以及，注意这个负数，还有溢出。https://www.cnblogs.com/dyzhao-blog/p/5662891.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>372. Super Pow</t>
+  </si>
+  <si>
+    <t>这是个数学问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,6 +668,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -653,9 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1406,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1398,20 +1421,44 @@
         <v>114</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="C69" s="9"/>
+      <c r="A69" s="9"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1432,7 +1479,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,72 @@
   </si>
   <si>
     <t>这是个数学问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用堆，也可以二分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>378. Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>这个用回溯会超时。用dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>377. Combination Sum IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找拐点数，或者dp（上升下降沿弄两个，一个的话感觉有遗漏，虽然leetcode查不出来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>376. Wiggle Subsequence</t>
+  </si>
+  <si>
+    <t>状态方程有点难想。想出来之后就是一个记忆化搜索的dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375. Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>map，vector，priority_queue的一些操作。（自定义比较大小怎么写，vector的erase）还有坐标移动的写法，和丑数那道题的思路是一样的。还没遇到过的比一圈，然后更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>373. Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>386. Lexicographical Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS递归会溢出……但是DFS是个正常想法。。。。。。能过得就是手动这个字典序过程
+class Solution {
+public:
+    vector&lt;int&gt; lexicalOrder(int n) {
+        vector&lt;int&gt; re;
+        int cur=1;
+        for(int i=0;i&lt;n;++i)
+        {
+            re.push_back(cur);
+            if(cur*10&lt;=n)
+                cur*=10;
+            else
+            {
+                if(cur==n)
+                    cur/=10;
+                ++cur;
+                while(cur%10==0)
+                    cur/=10;
+            }
+        }
+        return re;
+    }
+};</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1445,25 +1511,73 @@
         <v>120</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="342" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="C69" s="10"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="C77:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,12 +651,72 @@
 };</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>388. Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>关于字符串处理的。用栈。字符串的软肋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390. Elimination Game</t>
+  </si>
+  <si>
+    <t>这是一道数学题。多次经验表明，这种能通过一个过程，暴力整出来的，基本都会超时，所以一定有一些，递归找规律或者打表找规律的办法。https://blog.csdn.net/Sea_muxixi/article/details/79536071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>394.Decode String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能想到是用stack。然后具体怎么用，还是很巧妙的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>397.Integer Replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个位运算的题：
+111011 -&gt; 111010 -&gt; 11101 -&gt; 11100 -&gt; 1110 -&gt; 111 -&gt; 1000 -&gt; 100 -&gt; 10 -&gt; 1就不如：
+111011 -&gt; 111100 -&gt; 11110 -&gt; 1111 -&gt; 10000 -&gt; 1000 -&gt; 100 -&gt; 10 -&gt; 1，
+就是当是奇数的时候，最后一位是1，最后两位可能是01也可能是11，然后如果是01，选-1得到00比较赚；如果是11，+1能得到00比较赚。所以就看哪种操作能得到00，即能被4整除。(但是3比较特殊，需要判断一下)
+class Solution {
+public:
+    int integerReplacement(int n) {
+        if(n==INT_MAX)
+            return 32;
+        int re=0;
+        while(n&gt;1)
+        {
+            if(n%2==0)
+                n/=2;
+            else if(n!=3&amp;&amp;(n+1)%4==0)
+                n+=1;
+            else n-=1;
+            ++re;
+        }
+        return re;
+    }
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>395. Longest Substring with At Least K Repeating Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治，比较好理解（复杂度O(nlogn)）
+双指针，看了好几遍……也能懂，慢慢看（这个复杂度是O(n)的），就是用一个滑动窗口，维护有h种字母，且这些字母都大于等于k的窗口。然后h从1到26遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +761,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -722,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -737,6 +811,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -745,6 +820,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1503,7 +1582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -1511,7 +1590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -1519,7 +1598,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -1527,7 +1606,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -1535,7 +1614,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -1543,7 +1622,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -1551,7 +1630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="342" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="342" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -1559,25 +1638,158 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C109" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="C78" s="10"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
+      <c r="C110" s="11"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="C109:C110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/思路excel.xlsx
+++ b/思路excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>很像脑筋急转弯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,52 @@
   <si>
     <t>分治，比较好理解（复杂度O(nlogn)）
 双指针，看了好几遍……也能懂，慢慢看（这个复杂度是O(n)的），就是用一个滑动窗口，维护有h种字母，且这些字母都大于等于k的窗口。然后h从1到26遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398. Random Pick Index</t>
+  </si>
+  <si>
+    <t>水塘抽样算法。
+class Solution {
+public:
+    Solution(vector&lt;int&gt;&amp; nums) {
+        n=nums;
+    }
+    int pick(int target) {
+        int cnt=0;
+        int res=-1;
+        for(int i=0;i&lt;n.size();++i)
+        {
+            if(n[i]!=target)
+                continue;
+            ++cnt;
+            if(rand()%cnt==0) res=i;
+        }
+        return res;
+    }
+    vector&lt;int&gt; n;
+};
+/**
+ * Your Solution object will be instantiated and called as such:
+ * Solution* obj = new Solution(nums);
+ * int param_1 = obj-&gt;pick(target);
+ */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402. Remove K Digits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈的思想。这个过程想明白之后，可以由暴力解到优化的想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416. Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>DP。以及巧妙的bit运算。https://www.cnblogs.com/grandyang/p/5951422.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,6 +859,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -820,10 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,14 +1727,29 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="2"/>
+    <row r="77" spans="1:2" ht="399" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="2"/>
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="2"/>
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
@@ -1768,23 +1832,23 @@
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="13"/>
+    <row r="107" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
-      <c r="C110" s="11"/>
+      <c r="A110" s="13"/>
+      <c r="C110" s="14"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="A111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
